--- a/manso_files/SummaryTables.xlsx
+++ b/manso_files/SummaryTables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manso\Documents\Syracuse Data Science Masters\Classes\Spring 2020\IST-736 Text Mining\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A621A3-A117-4F23-87D4-5C3E7E83482D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1080B575-B6A6-4A43-AD96-986C11C4546F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E3A0789F-A1ED-4BDB-BDEA-4B2D987F9B6D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
   <si>
     <t>Cost</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>For presentation --&gt;</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -307,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +366,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,7 +382,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EFF613-452D-4E40-B8C7-8630A6CAC7E6}">
   <dimension ref="B5:W42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,17 +742,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="6"/>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -775,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -814,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
@@ -898,12 +921,12 @@
       <c r="F12" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -1031,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.3">
@@ -1058,31 +1081,31 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="N27" s="23"/>
-      <c r="Q27" s="12">
+      <c r="N27" s="18"/>
+      <c r="Q27" s="15">
         <v>2</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="R27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="S27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="T27" s="14" t="s">
+      <c r="T27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="U27" s="12" t="s">
+      <c r="U27" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="16">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="27" t="s">
         <v>34</v>
       </c>
       <c r="Q28" s="12">
@@ -1108,7 +1131,7 @@
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="N29" s="23"/>
+      <c r="N29" s="27"/>
       <c r="Q29" s="12">
         <v>4</v>
       </c>
@@ -1132,31 +1155,31 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="N30" s="23"/>
-      <c r="Q30" s="15">
+      <c r="N30" s="27"/>
+      <c r="Q30" s="24">
         <v>5</v>
       </c>
-      <c r="R30" s="15" t="s">
+      <c r="R30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="15" t="s">
+      <c r="S30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="T30" s="17" t="s">
+      <c r="T30" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U30" s="15" t="s">
+      <c r="U30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="V30" s="17" t="s">
+      <c r="V30" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="W30" s="16">
-        <v>0.97</v>
+      <c r="W30" s="26">
+        <v>0.92</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="N31" s="23"/>
+      <c r="N31" s="27"/>
       <c r="Q31" s="12">
         <v>6</v>
       </c>
@@ -1176,20 +1199,20 @@
         <v>33</v>
       </c>
       <c r="W31" s="13">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="N32" s="23"/>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N33" s="23"/>
+      <c r="N33" s="27"/>
     </row>
     <row r="34" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N34" s="23"/>
+      <c r="N34" s="27"/>
     </row>
     <row r="35" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N35" s="23"/>
+      <c r="N35" s="27"/>
       <c r="Q35" s="11" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1236,7 @@
       </c>
     </row>
     <row r="36" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N36" s="23"/>
+      <c r="N36" s="27"/>
       <c r="Q36" s="12">
         <v>1</v>
       </c>
@@ -1237,7 +1260,7 @@
       </c>
     </row>
     <row r="37" spans="14:23" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="N37" s="23" t="s">
+      <c r="N37" s="27" t="s">
         <v>35</v>
       </c>
       <c r="Q37" s="12">
@@ -1263,6 +1286,7 @@
       </c>
     </row>
     <row r="38" spans="14:23" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="N38" s="28"/>
       <c r="Q38" s="15">
         <v>3</v>
       </c>
@@ -1286,16 +1310,16 @@
       </c>
     </row>
     <row r="39" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N39" s="23"/>
+      <c r="N39" s="18"/>
     </row>
     <row r="40" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N40" s="23"/>
+      <c r="N40" s="18"/>
     </row>
     <row r="41" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N41" s="23"/>
+      <c r="N41" s="18"/>
     </row>
     <row r="42" spans="14:23" x14ac:dyDescent="0.3">
-      <c r="N42" s="23"/>
+      <c r="N42" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
